--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Agt-Mas1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Agt-Mas1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Agt</t>
+  </si>
+  <si>
+    <t>Mas1</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Agt</t>
-  </si>
-  <si>
-    <t>Mas1</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.257198</v>
+        <v>0.8072116666666668</v>
       </c>
       <c r="H2">
-        <v>0.514396</v>
+        <v>2.421635</v>
       </c>
       <c r="I2">
-        <v>0.1969864112529235</v>
+        <v>0.7485686721305167</v>
       </c>
       <c r="J2">
-        <v>0.1476779584913764</v>
+        <v>0.8170456278433896</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.53438</v>
+        <v>0.5611930000000001</v>
       </c>
       <c r="N2">
-        <v>1.06876</v>
+        <v>1.122386</v>
       </c>
       <c r="O2">
-        <v>0.2228724301615573</v>
+        <v>0.240057491320871</v>
       </c>
       <c r="P2">
-        <v>0.1817638213192043</v>
+        <v>0.2173002507773751</v>
       </c>
       <c r="Q2">
-        <v>0.13744146724</v>
+        <v>0.4530015368516668</v>
       </c>
       <c r="R2">
-        <v>0.5497658689599999</v>
+        <v>2.71800922111</v>
       </c>
       <c r="S2">
-        <v>0.04390284018474298</v>
+        <v>0.1796995175130474</v>
       </c>
       <c r="T2">
-        <v>0.02684251006001141</v>
+        <v>0.1775442198269264</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.257198</v>
+        <v>0.8072116666666668</v>
       </c>
       <c r="H3">
-        <v>0.514396</v>
+        <v>2.421635</v>
       </c>
       <c r="I3">
-        <v>0.1969864112529235</v>
+        <v>0.7485686721305167</v>
       </c>
       <c r="J3">
-        <v>0.1476779584913764</v>
+        <v>0.8170456278433896</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4413913333333334</v>
+        <v>0.4413913333333333</v>
       </c>
       <c r="N3">
         <v>1.324174</v>
       </c>
       <c r="O3">
-        <v>0.1840898969127774</v>
+        <v>0.1888107944517738</v>
       </c>
       <c r="P3">
-        <v>0.2252020344432203</v>
+        <v>0.2563675440293088</v>
       </c>
       <c r="Q3">
-        <v>0.1135249681506667</v>
+        <v>0.3562962338322223</v>
       </c>
       <c r="R3">
-        <v>0.681149808904</v>
+        <v>3.20666610449</v>
       </c>
       <c r="S3">
-        <v>0.03626320814076866</v>
+        <v>0.1413378456866723</v>
       </c>
       <c r="T3">
-        <v>0.0332573766946794</v>
+        <v>0.2094639809700945</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.257198</v>
+        <v>0.8072116666666668</v>
       </c>
       <c r="H4">
-        <v>0.514396</v>
+        <v>2.421635</v>
       </c>
       <c r="I4">
-        <v>0.1969864112529235</v>
+        <v>0.7485686721305167</v>
       </c>
       <c r="J4">
-        <v>0.1476779584913764</v>
+        <v>0.8170456278433896</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7787655</v>
+        <v>1.2869005</v>
       </c>
       <c r="N4">
-        <v>1.557531</v>
+        <v>2.573801</v>
       </c>
       <c r="O4">
-        <v>0.3247976337268989</v>
+        <v>0.5504881664767282</v>
       </c>
       <c r="P4">
-        <v>0.2648890175372597</v>
+        <v>0.4983023690165939</v>
       </c>
       <c r="Q4">
-        <v>0.200296929069</v>
+        <v>1.038801097439167</v>
       </c>
       <c r="R4">
-        <v>0.8011877162759999</v>
+        <v>6.232806584635001</v>
       </c>
       <c r="S4">
-        <v>0.06398072025130332</v>
+        <v>0.4120781958030472</v>
       </c>
       <c r="T4">
-        <v>0.0391182693366889</v>
+        <v>0.4071357719490113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.257198</v>
+        <v>0.8072116666666668</v>
       </c>
       <c r="H5">
-        <v>0.514396</v>
+        <v>2.421635</v>
       </c>
       <c r="I5">
-        <v>0.1969864112529235</v>
+        <v>0.7485686721305167</v>
       </c>
       <c r="J5">
-        <v>0.1476779584913764</v>
+        <v>0.8170456278433896</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.6431576666666667</v>
+        <v>0.04825933333333333</v>
       </c>
       <c r="N5">
-        <v>1.929473</v>
+        <v>0.144778</v>
       </c>
       <c r="O5">
-        <v>0.2682400391987664</v>
+        <v>0.02064354775062712</v>
       </c>
       <c r="P5">
-        <v>0.3281451267003155</v>
+        <v>0.02802983617672245</v>
       </c>
       <c r="Q5">
-        <v>0.1654188655513333</v>
+        <v>0.03895549689222223</v>
       </c>
       <c r="R5">
-        <v>0.992513193308</v>
+        <v>0.35059947203</v>
       </c>
       <c r="S5">
-        <v>0.05283964267610852</v>
+        <v>0.01545311312774986</v>
       </c>
       <c r="T5">
-        <v>0.04845980239999663</v>
+        <v>0.02290165509735755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8072116666666668</v>
+        <v>0.2711285</v>
       </c>
       <c r="H6">
-        <v>2.421635</v>
+        <v>0.542257</v>
       </c>
       <c r="I6">
-        <v>0.6182385918170351</v>
+        <v>0.2514313278694834</v>
       </c>
       <c r="J6">
-        <v>0.6952272432352978</v>
+        <v>0.1829543721566103</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.53438</v>
+        <v>0.5611930000000001</v>
       </c>
       <c r="N6">
-        <v>1.06876</v>
+        <v>1.122386</v>
       </c>
       <c r="O6">
-        <v>0.2228724301615573</v>
+        <v>0.240057491320871</v>
       </c>
       <c r="P6">
-        <v>0.1817638213192043</v>
+        <v>0.2173002507773751</v>
       </c>
       <c r="Q6">
-        <v>0.4313577704333333</v>
+        <v>0.1521554163005</v>
       </c>
       <c r="R6">
-        <v>2.5881466226</v>
+        <v>0.608621665202</v>
       </c>
       <c r="S6">
-        <v>0.1377883373779216</v>
+        <v>0.06035797380782357</v>
       </c>
       <c r="T6">
-        <v>0.1263671604156637</v>
+        <v>0.03975603095044862</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8072116666666668</v>
+        <v>0.2711285</v>
       </c>
       <c r="H7">
-        <v>2.421635</v>
+        <v>0.542257</v>
       </c>
       <c r="I7">
-        <v>0.6182385918170351</v>
+        <v>0.2514313278694834</v>
       </c>
       <c r="J7">
-        <v>0.6952272432352978</v>
+        <v>0.1829543721566103</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4413913333333334</v>
+        <v>0.4413913333333333</v>
       </c>
       <c r="N7">
         <v>1.324174</v>
       </c>
       <c r="O7">
-        <v>0.1840898969127774</v>
+        <v>0.1888107944517738</v>
       </c>
       <c r="P7">
-        <v>0.2252020344432203</v>
+        <v>0.2563675440293088</v>
       </c>
       <c r="Q7">
-        <v>0.3562962338322223</v>
+        <v>0.1196737701196667</v>
       </c>
       <c r="R7">
-        <v>3.206666104490001</v>
+        <v>0.718042620718</v>
       </c>
       <c r="S7">
-        <v>0.1138114786350987</v>
+        <v>0.04747294876510158</v>
       </c>
       <c r="T7">
-        <v>0.1565665895769406</v>
+        <v>0.04690356305921434</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8072116666666668</v>
+        <v>0.2711285</v>
       </c>
       <c r="H8">
-        <v>2.421635</v>
+        <v>0.542257</v>
       </c>
       <c r="I8">
-        <v>0.6182385918170351</v>
+        <v>0.2514313278694834</v>
       </c>
       <c r="J8">
-        <v>0.6952272432352978</v>
+        <v>0.1829543721566103</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7787655</v>
+        <v>1.2869005</v>
       </c>
       <c r="N8">
-        <v>1.557531</v>
+        <v>2.573801</v>
       </c>
       <c r="O8">
-        <v>0.3247976337268989</v>
+        <v>0.5504881664767282</v>
       </c>
       <c r="P8">
-        <v>0.2648890175372597</v>
+        <v>0.4983023690165939</v>
       </c>
       <c r="Q8">
-        <v>0.6286285971975001</v>
+        <v>0.34891540221425</v>
       </c>
       <c r="R8">
-        <v>3.771771583185</v>
+        <v>1.395661608857</v>
       </c>
       <c r="S8">
-        <v>0.2008024317008231</v>
+        <v>0.138409970673681</v>
       </c>
       <c r="T8">
-        <v>0.1841580614257355</v>
+        <v>0.09116659706758246</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,557 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8072116666666668</v>
+        <v>0.2711285</v>
       </c>
       <c r="H9">
-        <v>2.421635</v>
+        <v>0.542257</v>
       </c>
       <c r="I9">
-        <v>0.6182385918170351</v>
+        <v>0.2514313278694834</v>
       </c>
       <c r="J9">
-        <v>0.6952272432352978</v>
+        <v>0.1829543721566103</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.6431576666666667</v>
+        <v>0.04825933333333333</v>
       </c>
       <c r="N9">
-        <v>1.929473</v>
+        <v>0.144778</v>
       </c>
       <c r="O9">
-        <v>0.2682400391987664</v>
+        <v>0.02064354775062712</v>
       </c>
       <c r="P9">
-        <v>0.3281451267003155</v>
+        <v>0.02802983617672245</v>
       </c>
       <c r="Q9">
-        <v>0.5191643720394445</v>
+        <v>0.01308448065766666</v>
       </c>
       <c r="R9">
-        <v>4.672479348355001</v>
+        <v>0.07850688394599999</v>
       </c>
       <c r="S9">
-        <v>0.1658363441031916</v>
+        <v>0.005190434622877263</v>
       </c>
       <c r="T9">
-        <v>0.2281354318169579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.176565</v>
-      </c>
-      <c r="H10">
-        <v>0.35313</v>
-      </c>
-      <c r="I10">
-        <v>0.1352300783943593</v>
-      </c>
-      <c r="J10">
-        <v>0.1013800991494097</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.5</v>
-      </c>
-      <c r="M10">
-        <v>0.53438</v>
-      </c>
-      <c r="N10">
-        <v>1.06876</v>
-      </c>
-      <c r="O10">
-        <v>0.2228724301615573</v>
-      </c>
-      <c r="P10">
-        <v>0.1817638213192043</v>
-      </c>
-      <c r="Q10">
-        <v>0.09435280469999999</v>
-      </c>
-      <c r="R10">
-        <v>0.3774112187999999</v>
-      </c>
-      <c r="S10">
-        <v>0.03013905620268876</v>
-      </c>
-      <c r="T10">
-        <v>0.01842723422711652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.176565</v>
-      </c>
-      <c r="H11">
-        <v>0.35313</v>
-      </c>
-      <c r="I11">
-        <v>0.1352300783943593</v>
-      </c>
-      <c r="J11">
-        <v>0.1013800991494097</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.4413913333333334</v>
-      </c>
-      <c r="N11">
-        <v>1.324174</v>
-      </c>
-      <c r="O11">
-        <v>0.1840898969127774</v>
-      </c>
-      <c r="P11">
-        <v>0.2252020344432203</v>
-      </c>
-      <c r="Q11">
-        <v>0.07793426077000001</v>
-      </c>
-      <c r="R11">
-        <v>0.4676055646200001</v>
-      </c>
-      <c r="S11">
-        <v>0.02489449119112442</v>
-      </c>
-      <c r="T11">
-        <v>0.02283100458050245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.176565</v>
-      </c>
-      <c r="H12">
-        <v>0.35313</v>
-      </c>
-      <c r="I12">
-        <v>0.1352300783943593</v>
-      </c>
-      <c r="J12">
-        <v>0.1013800991494097</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.7787655</v>
-      </c>
-      <c r="N12">
-        <v>1.557531</v>
-      </c>
-      <c r="O12">
-        <v>0.3247976337268989</v>
-      </c>
-      <c r="P12">
-        <v>0.2648890175372597</v>
-      </c>
-      <c r="Q12">
-        <v>0.1375027305075</v>
-      </c>
-      <c r="R12">
-        <v>0.55001092203</v>
-      </c>
-      <c r="S12">
-        <v>0.04392240947119094</v>
-      </c>
-      <c r="T12">
-        <v>0.0268544748615171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.176565</v>
-      </c>
-      <c r="H13">
-        <v>0.35313</v>
-      </c>
-      <c r="I13">
-        <v>0.1352300783943593</v>
-      </c>
-      <c r="J13">
-        <v>0.1013800991494097</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.6431576666666667</v>
-      </c>
-      <c r="N13">
-        <v>1.929473</v>
-      </c>
-      <c r="O13">
-        <v>0.2682400391987664</v>
-      </c>
-      <c r="P13">
-        <v>0.3281451267003155</v>
-      </c>
-      <c r="Q13">
-        <v>0.113559133415</v>
-      </c>
-      <c r="R13">
-        <v>0.6813548004900001</v>
-      </c>
-      <c r="S13">
-        <v>0.0362741215293552</v>
-      </c>
-      <c r="T13">
-        <v>0.03326738548027359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.06468900000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.194067</v>
-      </c>
-      <c r="I14">
-        <v>0.04954491853568211</v>
-      </c>
-      <c r="J14">
-        <v>0.05571469912391609</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.53438</v>
-      </c>
-      <c r="N14">
-        <v>1.06876</v>
-      </c>
-      <c r="O14">
-        <v>0.2228724301615573</v>
-      </c>
-      <c r="P14">
-        <v>0.1817638213192043</v>
-      </c>
-      <c r="Q14">
-        <v>0.03456850782</v>
-      </c>
-      <c r="R14">
-        <v>0.20741104692</v>
-      </c>
-      <c r="S14">
-        <v>0.01104219639620386</v>
-      </c>
-      <c r="T14">
-        <v>0.01012691661641272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.06468900000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.194067</v>
-      </c>
-      <c r="I15">
-        <v>0.04954491853568211</v>
-      </c>
-      <c r="J15">
-        <v>0.05571469912391609</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.4413913333333334</v>
-      </c>
-      <c r="N15">
-        <v>1.324174</v>
-      </c>
-      <c r="O15">
-        <v>0.1840898969127774</v>
-      </c>
-      <c r="P15">
-        <v>0.2252020344432203</v>
-      </c>
-      <c r="Q15">
-        <v>0.02855316396200001</v>
-      </c>
-      <c r="R15">
-        <v>0.2569784756580001</v>
-      </c>
-      <c r="S15">
-        <v>0.009120718945785674</v>
-      </c>
-      <c r="T15">
-        <v>0.01254706359109781</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.06468900000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.194067</v>
-      </c>
-      <c r="I16">
-        <v>0.04954491853568211</v>
-      </c>
-      <c r="J16">
-        <v>0.05571469912391609</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.7787655</v>
-      </c>
-      <c r="N16">
-        <v>1.557531</v>
-      </c>
-      <c r="O16">
-        <v>0.3247976337268989</v>
-      </c>
-      <c r="P16">
-        <v>0.2648890175372597</v>
-      </c>
-      <c r="Q16">
-        <v>0.05037756142950001</v>
-      </c>
-      <c r="R16">
-        <v>0.302265368577</v>
-      </c>
-      <c r="S16">
-        <v>0.01609207230358152</v>
-      </c>
-      <c r="T16">
-        <v>0.01475821191331816</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.06468900000000001</v>
-      </c>
-      <c r="H17">
-        <v>0.194067</v>
-      </c>
-      <c r="I17">
-        <v>0.04954491853568211</v>
-      </c>
-      <c r="J17">
-        <v>0.05571469912391609</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.6431576666666667</v>
-      </c>
-      <c r="N17">
-        <v>1.929473</v>
-      </c>
-      <c r="O17">
-        <v>0.2682400391987664</v>
-      </c>
-      <c r="P17">
-        <v>0.3281451267003155</v>
-      </c>
-      <c r="Q17">
-        <v>0.04160522629900001</v>
-      </c>
-      <c r="R17">
-        <v>0.3744470366910001</v>
-      </c>
-      <c r="S17">
-        <v>0.01328993089011106</v>
-      </c>
-      <c r="T17">
-        <v>0.01828250700308741</v>
+        <v>0.005128181079364896</v>
       </c>
     </row>
   </sheetData>
